--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_43.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_43.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2496F-B4E3-4C9A-BB0A-8066686C3649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5F601-C721-4350-804A-DC1C6B06B499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -632,6 +632,24 @@
   </si>
   <si>
     <t>Jain College of Engg, Belgaum</t>
+  </si>
+  <si>
+    <t>Sai Darshan K</t>
+  </si>
+  <si>
+    <t>saidarshan55m@gmail.com</t>
+  </si>
+  <si>
+    <t>8951451695</t>
+  </si>
+  <si>
+    <t>CHANDU K T</t>
+  </si>
+  <si>
+    <t>chanduchandu5859@gmail.com</t>
+  </si>
+  <si>
+    <t>9449375460</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5940305-0FA1-4090-B6F6-B0B2B92A33FD}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2403,6 +2421,52 @@
         <v>15</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
